--- a/archive/AoS conference files/cha_codebook.xlsx
+++ b/archive/AoS conference files/cha_codebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stamma1\Documents\R\trainings\Shiny-projects\r-accessibility-vignettes\create_mock_data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D36FFC-609C-45BB-A83F-85E0526E3582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D454BCB3-AAB8-4A43-B12A-353470D7BF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29730" yWindow="-14280" windowWidth="21600" windowHeight="11190" xr2:uid="{5B7868B9-B8D1-4713-9C77-CE53AAB33866}"/>
+    <workbookView xWindow="-23985" yWindow="585" windowWidth="21495" windowHeight="11295" xr2:uid="{5B7868B9-B8D1-4713-9C77-CE53AAB33866}"/>
   </bookViews>
   <sheets>
     <sheet name="codebook" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="104">
   <si>
     <t>variable</t>
   </si>
@@ -68,9 +68,6 @@
     <t>lose_weight</t>
   </si>
   <si>
-    <t>Are you trying to lose weight?</t>
-  </si>
-  <si>
     <t>gen_health</t>
   </si>
   <si>
@@ -101,123 +98,9 @@
     <t>weight</t>
   </si>
   <si>
-    <t>race_aian</t>
-  </si>
-  <si>
-    <t>race_asian</t>
-  </si>
-  <si>
-    <t>race_black</t>
-  </si>
-  <si>
-    <t>race_hisp</t>
-  </si>
-  <si>
-    <t>race_hawaii</t>
-  </si>
-  <si>
-    <t>race_white</t>
-  </si>
-  <si>
-    <t>race_other</t>
-  </si>
-  <si>
-    <t>race_refuse</t>
-  </si>
-  <si>
-    <t>What is your race or ethnicity? American Indian or Alaska Native</t>
-  </si>
-  <si>
-    <t>What is your race or ethnicity? Asian or Asian American</t>
-  </si>
-  <si>
-    <t>What is your race or ethnicity? Black or African or African American</t>
-  </si>
-  <si>
-    <t>What is your race or ethnicity? Hispanic or Latino</t>
-  </si>
-  <si>
-    <t>What is your race or ethnicity? Native Hawaiian or Pacific Islander</t>
-  </si>
-  <si>
-    <t>What is your race or ethnicity? White</t>
-  </si>
-  <si>
-    <t>What is your race or ethnicity? Prefer not to say</t>
-  </si>
-  <si>
-    <t>care_doc</t>
-  </si>
-  <si>
-    <t>care_clinic</t>
-  </si>
-  <si>
-    <t>care_emerg</t>
-  </si>
-  <si>
-    <t>care_urgent</t>
-  </si>
-  <si>
-    <t>care_chiro</t>
-  </si>
-  <si>
-    <t>care_media</t>
-  </si>
-  <si>
-    <t>care_search</t>
-  </si>
-  <si>
-    <t>care_none</t>
-  </si>
-  <si>
-    <t>care_other</t>
-  </si>
-  <si>
-    <t>care_tele</t>
-  </si>
-  <si>
-    <t>care_public</t>
-  </si>
-  <si>
-    <t>Where you usually go when you are sick or need medical care? Doctor’s office </t>
-  </si>
-  <si>
-    <t>Where you usually go when you are sick or need medical care? Outpatient clinic </t>
-  </si>
-  <si>
-    <t>Where you usually go when you are sick or need medical care? Emergency room </t>
-  </si>
-  <si>
-    <t>Where you usually go when you are sick or need medical care? Urgent care clinic </t>
-  </si>
-  <si>
-    <t>Where you usually go when you are sick or need medical care? Chiropractor</t>
-  </si>
-  <si>
-    <t>Where you usually go when you are sick or need medical care? Social media </t>
-  </si>
-  <si>
-    <t>Where you usually go when you are sick or need medical care? Internet search </t>
-  </si>
-  <si>
-    <t>Where you usually go when you are sick or need medical care? None</t>
-  </si>
-  <si>
-    <t>Where you usually go when you are sick or need medical care? Other</t>
-  </si>
-  <si>
-    <t>Where you usually go when you are sick or need medical care? Telehealth</t>
-  </si>
-  <si>
-    <t>Where you usually go when you are sick or need medical care? Public health</t>
-  </si>
-  <si>
     <t>Any valid year from 1900 to present</t>
   </si>
   <si>
-    <t>In which Minnesota county do you live?</t>
-  </si>
-  <si>
     <t>weight_lb</t>
   </si>
   <si>
@@ -242,9 +125,6 @@
     <t>(calculated from bmi_calc)</t>
   </si>
   <si>
-    <t>ip_address</t>
-  </si>
-  <si>
     <t>(pulled from survey tool)</t>
   </si>
   <si>
@@ -257,16 +137,195 @@
     <t>Integer (or float/decimal?)</t>
   </si>
   <si>
-    <t>Do you live in a metro or rural county?</t>
-  </si>
-  <si>
     <t>Float/decimal above 0</t>
   </si>
   <si>
-    <t>Any valid Minnesota county</t>
-  </si>
-  <si>
-    <t>What is your race or ethnicity? Race not listed</t>
+    <t>Underweight; 
+About the right weight; 
+Overweight; 
+Obese; 
+Prefer not to say</t>
+  </si>
+  <si>
+    <t>Yes, trying to; 
+Yes, want to; 
+No; 
+Prefer not to say</t>
+  </si>
+  <si>
+    <t>Excellent; 
+Very good; 
+Good; 
+Fair; 
+Poor</t>
+  </si>
+  <si>
+    <t>American Indian or Alaska Native; 
+(blank)</t>
+  </si>
+  <si>
+    <t>Asian or Asian American; 
+(blank)</t>
+  </si>
+  <si>
+    <t>Black or African or African American; 
+(blank)</t>
+  </si>
+  <si>
+    <t>Native Hawaiian or Pacific Islander; 
+(blank)</t>
+  </si>
+  <si>
+    <t>White; 
+(blank)</t>
+  </si>
+  <si>
+    <t>Prefer not to say; 
+(blank)</t>
+  </si>
+  <si>
+    <t>Doctor’s office; 
+(blank)</t>
+  </si>
+  <si>
+    <t>Outpatient clinic; 
+(blank)</t>
+  </si>
+  <si>
+    <t>Emergency room; 
+(blank)</t>
+  </si>
+  <si>
+    <t>Urgent care clinic; 
+(blank)</t>
+  </si>
+  <si>
+    <t>Telehealth; 
+(blank)</t>
+  </si>
+  <si>
+    <t>Underweight; 
+Normal weight; 
+Overweight; 
+Obese; 
+Morbidly obese</t>
+  </si>
+  <si>
+    <t>Any valid IP address (format x1.x2.x3.x4 where each x can be any value 0 to 255)</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>categorical/factor</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>string/factor</t>
+  </si>
+  <si>
+    <t>categorical/factor/ordinal</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>open text/long string</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>Are you of Hispanic, Latino/a, or Spanish origin?</t>
+  </si>
+  <si>
+    <t>ethnicity</t>
+  </si>
+  <si>
+    <t>Yes;
+No;
+Prefer not to say</t>
+  </si>
+  <si>
+    <t>How would you classify the county in which you live?</t>
+  </si>
+  <si>
+    <t>Urban; 
+Rural;
+I don't know</t>
+  </si>
+  <si>
+    <t>In which county do you live?</t>
+  </si>
+  <si>
+    <t>Response ID</t>
+  </si>
+  <si>
+    <t>Survey ID auto-generated by Alchemer</t>
+  </si>
+  <si>
+    <t>Date Submitted</t>
+  </si>
+  <si>
+    <t>Survey submission date, recorded by Alchemer</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>American Indian or Alaska Native:race</t>
+  </si>
+  <si>
+    <t>Which race(s) do you identify with? (Select all that apply) Black or African or African American</t>
+  </si>
+  <si>
+    <t>Which race(s) do you identify with? (Select all that apply) Asian or Asian American</t>
+  </si>
+  <si>
+    <t>Which race(s) do you identify with? (Select all that apply) American Indian or Alaska Native</t>
+  </si>
+  <si>
+    <t>Which race(s) do you identify with? (Select all that apply) Native Hawaiian or Pacific Islander</t>
+  </si>
+  <si>
+    <t>Which race(s) do you identify with? (Select all that apply) White</t>
+  </si>
+  <si>
+    <t>Which race(s) do you identify with? (Select all that apply) Prefer not to say</t>
+  </si>
+  <si>
+    <t>Other - Write In (Required):race</t>
+  </si>
+  <si>
+    <t>Which race(s) do you identify with? (Select all that apply) Other - Write In (Required)</t>
+  </si>
+  <si>
+    <t>Where you typically go when you are sick or need medical care? Doctor’s office </t>
+  </si>
+  <si>
+    <t>Where you typically go when you are sick or need medical care? Outpatient clinic </t>
+  </si>
+  <si>
+    <t>Where you typically go when you are sick or need medical care? Emergency room </t>
+  </si>
+  <si>
+    <t>Where you typically go when you are sick or need medical care? Urgent care clinic </t>
+  </si>
+  <si>
+    <t>Where you typically go when you are sick or need medical care? Telehealth</t>
+  </si>
+  <si>
+    <t>Where you typically go when you are sick or need medical care? Other - Write In (Required)</t>
+  </si>
+  <si>
+    <t>Other - Write In (Required);
+(blank)</t>
+  </si>
+  <si>
+    <t>Other - Write In (Required); 
+(blank)</t>
   </si>
   <si>
     <t>Male; 
@@ -275,142 +334,67 @@
 Non-binary; 
 Agender; 
 Two-Spirit; 
-Other; 
+Other - Write In (Required); 
 Prefer not to say</t>
   </si>
   <si>
-    <t>Underweight; 
-About the right weight; 
-Overweight; 
-Obese; 
+    <t>sex_orient</t>
+  </si>
+  <si>
+    <t>How do you describe your sexual orientation?</t>
+  </si>
+  <si>
+    <t>Straight/Heterosexual; 
+Gay; 
+Lesbian; 
+Bisexual; 
+Pansexual; 
+Asexual; 
+Queer; 
+Other - Write In (Required); 
 Prefer not to say</t>
   </si>
   <si>
-    <t>Yes, trying to; 
-Yes, want to; 
-No; 
-Prefer not to say</t>
-  </si>
-  <si>
-    <t>Excellent; 
-Very good; 
-Good; 
-Fair; 
-Poor</t>
-  </si>
-  <si>
-    <t>Metro; 
-Rural</t>
-  </si>
-  <si>
-    <t>American Indian or Alaska Native; 
-(blank)</t>
-  </si>
-  <si>
-    <t>Asian or Asian American; 
-(blank)</t>
-  </si>
-  <si>
-    <t>Black or African or African American; 
-(blank)</t>
-  </si>
-  <si>
-    <t>Hispanic or Latino; 
-(blank)</t>
-  </si>
-  <si>
-    <t>Native Hawaiian or Pacific Islander; 
-(blank)</t>
-  </si>
-  <si>
-    <t>White; 
-(blank)</t>
-  </si>
-  <si>
-    <t>Race not listed; 
-(blank)</t>
-  </si>
-  <si>
-    <t>Prefer not to say; 
-(blank)</t>
-  </si>
-  <si>
-    <t>Doctor’s office; 
-(blank)</t>
-  </si>
-  <si>
-    <t>Outpatient clinic; 
-(blank)</t>
-  </si>
-  <si>
-    <t>Emergency room; 
-(blank)</t>
-  </si>
-  <si>
-    <t>Urgent care clinic; 
-(blank)</t>
-  </si>
-  <si>
-    <t>Chiropractor; 
-(blank)</t>
-  </si>
-  <si>
-    <t>Social media; 
-(blank)</t>
-  </si>
-  <si>
-    <t>Internet search; 
-(blank)</t>
-  </si>
-  <si>
-    <t>None; 
-(blank)</t>
-  </si>
-  <si>
-    <t>Other; 
-(blank)</t>
-  </si>
-  <si>
-    <t>Telehealth; 
-(blank)</t>
-  </si>
-  <si>
-    <t>Public health; 
-(blank)</t>
-  </si>
-  <si>
-    <t>Underweight; 
-Normal weight; 
-Overweight; 
-Obese; 
-Morbidly obese</t>
-  </si>
-  <si>
-    <t>Any valid IP address (format x1.x2.x3.x4 where each x can be any value 0 to 255)</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>categorical/factor</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>string/factor</t>
-  </si>
-  <si>
-    <t>categorical/factor/ordinal</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>open text/long string</t>
-  </si>
-  <si>
-    <t>float</t>
+    <t>Asian or Asian American:race</t>
+  </si>
+  <si>
+    <t>Black or African or African American:race</t>
+  </si>
+  <si>
+    <t>Native Hawaiian or Pacific Islander:race</t>
+  </si>
+  <si>
+    <t>White:race</t>
+  </si>
+  <si>
+    <t>Prefer not to say:race</t>
+  </si>
+  <si>
+    <t>Doctor's office:care</t>
+  </si>
+  <si>
+    <t>Outpatient clinic:care</t>
+  </si>
+  <si>
+    <t>Emergency room:care</t>
+  </si>
+  <si>
+    <t>Urgent care clinic:care</t>
+  </si>
+  <si>
+    <t>Telehealth:care</t>
+  </si>
+  <si>
+    <t>Other - Write In (Required):care</t>
+  </si>
+  <si>
+    <t>IP Address</t>
+  </si>
+  <si>
+    <t>Any valid county</t>
+  </si>
+  <si>
+    <t>Are you currently working toward lowering your weight?</t>
   </si>
 </sst>
 </file>
@@ -479,14 +463,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -822,518 +806,497 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3EB278-E087-473B-922E-56BBF8E907CA}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.3046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.84375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.84375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="42.53515625" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9.3046875" style="3"/>
+    <col min="1" max="1" width="27.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="42.5703125" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.28515625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="116.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+      <c r="C7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="45.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="31.75" x14ac:dyDescent="0.4">
-      <c r="A18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="31.75" x14ac:dyDescent="0.4">
-      <c r="A19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="31.75" x14ac:dyDescent="0.4">
-      <c r="A20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="31.75" x14ac:dyDescent="0.4">
-      <c r="A21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="C32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="31.75" x14ac:dyDescent="0.4">
-      <c r="A22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="31.75" x14ac:dyDescent="0.4">
-      <c r="A23" s="4" t="s">
+      <c r="B33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="31.75" x14ac:dyDescent="0.4">
-      <c r="A24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="31.75" x14ac:dyDescent="0.4">
-      <c r="A25" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="31.75" x14ac:dyDescent="0.4">
-      <c r="A26" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="31.75" x14ac:dyDescent="0.4">
-      <c r="A27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="31.75" x14ac:dyDescent="0.4">
-      <c r="A28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A33" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A34" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>72</v>
-      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D33">
+    <sortCondition ref="B2:B33"/>
+  </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A38405336ED8C64C80FC2B1530D9BCF9" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9e85754aee2460691ef4e103d6bd13f8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="929f7420-c970-4b72-97c5-b26ebd097fc8" xmlns:ns4="09c8812d-bb56-498d-878e-4e228227e30b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="696a99cba812bc276575ef84354cf674" ns3:_="" ns4:_="">
     <xsd:import namespace="929f7420-c970-4b72-97c5-b26ebd097fc8"/>
@@ -1566,15 +1529,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1584,6 +1538,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56402DC5-2BDB-402C-8942-28CEA4EB2820}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0B9F918-4A15-4283-8BA7-A9B92536DB9C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1598,14 +1560,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56402DC5-2BDB-402C-8942-28CEA4EB2820}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
